--- a/管理/素材用エクセル/素材リスト_サウンド.xlsx
+++ b/管理/素材用エクセル/素材リスト_サウンド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CE86D-8E4B-4F5F-923A-3B9AD544F81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6B1939-FB78-4946-A4ED-B0FE6CBCBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="6420" windowWidth="25125" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サウンド" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CanonShot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BeamShot.wav</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -498,6 +494,10 @@
   </si>
   <si>
     <t>EnemySlashHeavy.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CannonShot.wav</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -557,14 +557,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -969,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1186,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1255,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1278,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1301,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1324,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1347,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1370,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1">
@@ -1393,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1416,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1439,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1825,30 +1818,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:E51">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G51">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1860,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7A59EB-1AF4-431B-8F88-0E9EB677EB64}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1931,7 +1924,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1943,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1957,7 +1950,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1969,7 +1962,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1980,10 +1973,10 @@
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1995,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2006,10 +1999,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2032,10 +2025,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2058,10 +2051,10 @@
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2084,10 +2077,10 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2297,30 +2290,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:E30">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2399,13 +2392,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2425,13 +2418,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2451,13 +2444,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2477,13 +2470,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2503,13 +2496,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2529,13 +2522,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2555,13 +2548,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2581,13 +2574,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -2698,30 +2691,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:E20">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G20">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/素材リスト_サウンド.xlsx
+++ b/管理/素材用エクセル/素材リスト_サウンド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6B1939-FB78-4946-A4ED-B0FE6CBCBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB6523-9320-4E7C-BE96-065F80AC3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サウンド" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
   <si>
     <t>explain</t>
     <phoneticPr fontId="2"/>
@@ -115,30 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FightBoss3.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FightBoss2.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FightBoss1.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fight1.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fight2.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fight3.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戦闘開始ジングル</t>
     <rPh sb="0" eb="4">
       <t>セントウカイシ</t>
@@ -160,14 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FightStartJingle.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FightEndJingle.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コッキングの音「ガッチャ」</t>
     <rPh sb="6" eb="7">
       <t>オト</t>
@@ -175,15 +143,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cocking.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リロードの音「チャ」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reload.wav</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -200,15 +160,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ReloadEnd.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コマンドにカーソルを乗せる「ガチュニッ」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CommandSelect.wav</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -219,10 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TargetMove.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>帯系のセレクト「ピッ」</t>
     <rPh sb="0" eb="1">
       <t>オビ</t>
@@ -233,10 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BandSelect.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルトボタン選択の「ポーン」</t>
     <rPh sb="7" eb="9">
       <t>センタク</t>
@@ -244,14 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResultEnter.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HeartBeat.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルトのハート増加音「トクッ」</t>
     <rPh sb="8" eb="10">
       <t>ゾウカ</t>
@@ -262,14 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リザルトBGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト終了ジングル</t>
     <rPh sb="4" eb="6">
       <t>シュウリョウ</t>
@@ -277,10 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResultEndJingle.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Number</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,63 +251,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>永続バフ系</t>
-    <rPh sb="0" eb="2">
-      <t>エイゾク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>即時バフ系</t>
-    <rPh sb="0" eb="2">
-      <t>ソクジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BiShot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BeamShot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DiffenceShot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BuffShot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeverBuffShot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sound/SE/Fight/Shot/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Sound/SE/Fight/EnemyAttack/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemySlash.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemyBlows.wav</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -417,32 +289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銃撃系(軽い)</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銃撃系(重い)</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>斬撃系（軽い）</t>
     <rPh sb="0" eb="2">
       <t>ザンゲキ</t>
@@ -473,31 +319,159 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EnemyBlowsHeavy.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemyBeam.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemyShot.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemyShotHeavy.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemyBeamHeavy.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemySlashHeavy.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CannonShot.wav</t>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バフ系</t>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃撃系</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyBuff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyDifence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyShot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyBeamHeavy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyBeam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyBlowsHeavy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyBlows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemySlashHeavy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemySlash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BuffShot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiffenceShot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BeamShot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CannonShot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BiShot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultEndJingle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HeartBeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultEnter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BandSelect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TargetMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommandSelect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReloadEnd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cocking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FightEndJingle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FightStartJingle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FightBoss3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FightBoss2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FightBoss1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fight3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fight2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fight1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -962,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="B12:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1026,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1049,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1072,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1095,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1118,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1141,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1161,36 +1135,36 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1207,13 +1181,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1230,13 +1204,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1248,18 +1222,18 @@
         <v>8</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1271,18 +1245,18 @@
         <v>8</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1294,18 +1268,18 @@
         <v>8</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1317,18 +1291,18 @@
         <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1340,18 +1314,18 @@
         <v>8</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1363,18 +1337,18 @@
         <v>8</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1386,18 +1360,18 @@
         <v>8</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1409,30 +1383,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1817,27 +1768,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:E51">
+  <conditionalFormatting sqref="D21:E51 D3:E19">
     <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G51">
+  <conditionalFormatting sqref="G21:G51 G3:G19">
     <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F19">
     <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F19">
     <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F19">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"End"</formula>
     </cfRule>
@@ -1853,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7A59EB-1AF4-431B-8F88-0E9EB677EB64}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1887,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1913,18 +1864,18 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1944,13 +1895,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1970,13 +1921,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1996,13 +1947,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2014,7 +1965,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2022,13 +1973,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2040,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2048,13 +1999,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2066,37 +2017,20 @@
         <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -2326,7 +2260,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2361,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2387,18 +2321,18 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2410,7 +2344,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2418,13 +2352,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2436,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2444,13 +2378,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2462,7 +2396,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2470,13 +2404,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2488,7 +2422,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2496,13 +2430,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2514,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2522,13 +2456,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2540,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -2548,13 +2482,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2566,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -2574,13 +2508,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -2592,29 +2526,37 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
@@ -2690,27 +2632,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:E20">
+  <conditionalFormatting sqref="D13:E20 D3:E11">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G20">
+  <conditionalFormatting sqref="G13:G20 G3:G11">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F13:F20 F3:F11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F13:F20 F3:F11">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F13:F20 F3:F11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"End"</formula>
     </cfRule>

--- a/管理/素材用エクセル/素材リスト_サウンド.xlsx
+++ b/管理/素材用エクセル/素材リスト_サウンド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB6523-9320-4E7C-BE96-065F80AC3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588AA8B-598E-443A-9BD0-4845A876DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サウンド" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>explain</t>
     <phoneticPr fontId="2"/>
@@ -479,7 +479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,13 +501,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -519,17 +532,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -937,7 +958,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1802,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7A59EB-1AF4-431B-8F88-0E9EB677EB64}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1815,7 +1836,7 @@
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,22 +1847,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1855,19 +1873,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1880,20 +1895,17 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1906,20 +1918,17 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1932,20 +1941,17 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1958,20 +1964,17 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1984,20 +1987,17 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2010,20 +2010,17 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2032,7 +2029,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2041,7 +2038,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2050,7 +2047,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2059,7 +2056,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2068,7 +2065,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2077,7 +2074,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2086,7 +2083,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2223,27 +2220,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:E30">
+  <conditionalFormatting sqref="D9:E30 D3:D8">
     <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G30">
+  <conditionalFormatting sqref="G9:G30 F3:F8">
     <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F9:F20 E3:E8">
     <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F9:F20 E3:E8">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F9:F20 E3:E8">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"End"</formula>
     </cfRule>
@@ -2257,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A932FE6-D13B-4CB5-8717-D5E236CD1D12}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D1" sqref="D1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2272,7 +2269,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2283,22 +2280,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2312,45 +2306,39 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,46 +2351,40 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2415,46 +2397,40 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2467,46 +2443,40 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -2519,46 +2489,40 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2567,7 +2531,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2576,7 +2540,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2585,7 +2549,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2632,27 +2596,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D13:E20 D3:E11">
+  <conditionalFormatting sqref="D13:E20 D3:D11">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G20 G3:G11">
+  <conditionalFormatting sqref="G13:G20 F3:F11">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F20 F3:F11">
+  <conditionalFormatting sqref="F13:F20 E3:E11">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F20 F3:F11">
+  <conditionalFormatting sqref="F13:F20 E3:E11">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F20 F3:F11">
+  <conditionalFormatting sqref="F13:F20 E3:E11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"End"</formula>
     </cfRule>
